--- a/status1.xlsx
+++ b/status1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock\Desktop\Mercedes Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A899EAB4-59F5-4445-9C9A-DDA6205E1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379EBAA6-3B16-4021-9FDB-C44D5083C625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="576" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:I27"/>
+      <selection activeCell="I10" sqref="A1:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/status1.xlsx
+++ b/status1.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock\Desktop\Mercedes Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379EBAA6-3B16-4021-9FDB-C44D5083C625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE204E2C-637A-407C-832B-D8A84EB766BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1752" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
